--- a/semester3-real-estate-back-end/semester3_data.xlsx
+++ b/semester3-real-estate-back-end/semester3_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\RiderProjects\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dvds\Desktop\semester3\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC6AD7A-7B66-4190-A4B4-DBD3AEA78D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8176FC5-068A-44A9-BDF6-3393C38F3F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direction" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Role" sheetId="11" r:id="rId9"/>
     <sheet name="UserRole" sheetId="12" r:id="rId10"/>
     <sheet name="Property" sheetId="10" r:id="rId11"/>
+    <sheet name="PropertyImage" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="620">
   <si>
     <t>DirectionId</t>
   </si>
@@ -126,15 +127,6 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>Bán đất</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>/images/bfafb74b-0dcd-4187-9141-670f03ba97aa_onepunchman.PNG</t>
-  </si>
-  <si>
     <t>70acc54a-44e0-4d31-8b07-52b5b82e9e55</t>
   </si>
   <si>
@@ -1735,6 +1727,186 @@
   </si>
   <si>
     <t>Phường Phúc Diễn</t>
+  </si>
+  <si>
+    <t>PropertyImageId</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>/images/1.1.webp</t>
+  </si>
+  <si>
+    <t>/images/1.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/1.3.webp</t>
+  </si>
+  <si>
+    <t>/images/1.4.jpg</t>
+  </si>
+  <si>
+    <t>Nice &amp; cozy, modest home with great updates like a recently replaced roof, 4 ton a/c &amp; heat system and ductwork, Pex plumbing, updated electrical box. 3 bed, 1.5 bath, 2 car carport, 2 driveways for extra parking, storage building and a great yard. Corner lot with fenced back yard. Houses like this don't come available often in Hungerford TX! Lets go take a look!</t>
+  </si>
+  <si>
+    <t>/images/2.1.webp</t>
+  </si>
+  <si>
+    <t>/images/2.2.webp</t>
+  </si>
+  <si>
+    <t>/images/2.3.webp</t>
+  </si>
+  <si>
+    <t>/images/2.4.webp</t>
+  </si>
+  <si>
+    <t>/images/2.5.webp</t>
+  </si>
+  <si>
+    <t>14902 Bernard Timbers Dr</t>
+  </si>
+  <si>
+    <t>Welcome to 14902 Bernard Timbers Dr. Located in highly sought after East Bernard ISD, this home ready to be yours! It features an open kitchen, with a formal living room as well as a more private den. 2 fire places to cozy up to during the cold winter days. A large dining room just off the kitchen allows a great opportunity for entertaining. The primary bed room features a bonus room to use as an office or extra dressing room</t>
+  </si>
+  <si>
+    <t>/images/3.1.webp</t>
+  </si>
+  <si>
+    <t>/images/3.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/3.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/3.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/3.5.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9611</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9612</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9613</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9614</t>
+  </si>
+  <si>
+    <t>4951 Baldwin Dr</t>
+  </si>
+  <si>
+    <t>TBD Cr 268</t>
+  </si>
+  <si>
+    <t>730 Morris St</t>
+  </si>
+  <si>
+    <t>Historic 2 story home built in 1910 in the heart of old town East Bernard, TX!! This home features high ceilings, large rooms, a covered front porch, large 2nd floor balcony overlooking the front yard and a good sized backyard. This is a great opportunity for an investor to fix and flip or hold or for the owner occupant wanting to remodel and build in equity for down the road</t>
+  </si>
+  <si>
+    <t>/images/4.1.jpg</t>
+  </si>
+  <si>
+    <t>/images/4.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/4.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/4.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/4.5.jpg</t>
+  </si>
+  <si>
+    <t>/images/4.6.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9615</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9616</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9617</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9618</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9619</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9620</t>
+  </si>
+  <si>
+    <t>CUONG</t>
+  </si>
+  <si>
+    <t>16170 County Road 274</t>
+  </si>
+  <si>
+    <t>Country living in EBISD! Welcome to 16170 CR 274! This beautiful custom home is to be completed by end of August! This Manley Custom Home features 2023 square feet, three bedrooms, a home office and two and half baths! The large covered back porch is the perfect place to relax and watch the gorgeous prairie sunsets! Come see all this home has to offer! Call today for your private tour!</t>
+  </si>
+  <si>
+    <t>/images/5.1.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.5.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.6.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.7.jpg</t>
+  </si>
+  <si>
+    <t>/images/5.8.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9621</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9622</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9623</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9624</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9625</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9626</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9627</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268 TBD Cr </t>
+  </si>
+  <si>
+    <t>This unique barndominium offers an open floor plan and is situated on 9.93 wooded acres, providing the ultimate blend of rustic charm and modern living. The spacious living area is located on the second floor and features a deck that offers stunning views of a serene stock pond, mature woods &amp; abundance of wildlife. For the hobbyist or professional, the ground floor shop is equipped with a 4-post car lift, perfect for all your automotive projects. Nestled along the San Bernard River, this property is a haven for outdoor enthusiasts, boasting abundant opportunities for fishing, hunting, and wildlife observation. Embrace a lifestyle of tranquility and adventure in this one-of-a-kind barndominium retreat!</t>
   </si>
 </sst>
 </file>
@@ -1790,17 +1962,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2114,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,31 +2312,31 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2190,23 +2364,23 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2216,135 +2390,798 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771BEEF-8713-4247-B2C1-625354279C29}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="38" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="5" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="38" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="5">
+        <v>235000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1534</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>206</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" s="5">
+        <v>385000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>432</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>102</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f>$L$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="M3" s="5" t="str">
+        <f>$M$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f>$N$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f>$O$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="str">
+        <f>$Q$2</f>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" s="5">
+        <v>579000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2978</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>306</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f>$L$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="M4" s="5" t="str">
+        <f>$M$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f>$N$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f>$O$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="str">
+        <f>$Q$2</f>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" s="5">
+        <v>252300</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1584</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>204</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>$L$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f>$M$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>$N$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f>$O$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f>$Q$2</f>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" s="5">
+        <v>479909</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>906</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f>$L$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f>$M$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>$N$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>$O$2</f>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f>$Q$2</f>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76CCC07-180E-4F1C-9641-DE9BC5453AFC}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>562</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>235</v>
-      </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="D3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
+      <c r="D5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B20" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>598</v>
+      </c>
+      <c r="B21" t="s">
+        <v>592</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>610</v>
+      </c>
+      <c r="B22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" t="s">
+        <v>606</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>616</v>
+      </c>
+      <c r="B28" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2382,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,55 +3243,55 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2486,507 +3323,507 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>66</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>68</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>89</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>91</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>92</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>93</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>94</v>
-      </c>
-      <c r="B62" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>95</v>
-      </c>
-      <c r="B63" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>96</v>
-      </c>
-      <c r="B64" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B284E6C8-F2FE-43A9-ABB8-61F5B4311358}">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -3008,14 +3845,14 @@
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3024,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3035,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3046,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3057,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3068,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3079,7 +3916,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3090,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3101,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3112,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3123,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3134,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3145,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3156,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3167,7 +4004,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3178,7 +4015,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3189,7 +4026,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3200,7 +4037,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3211,7 +4048,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3222,7 +4059,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3233,7 +4070,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3244,7 +4081,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3255,7 +4092,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3266,7 +4103,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3277,7 +4114,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3288,7 +4125,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3299,7 +4136,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3310,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3321,7 +4158,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3332,7 +4169,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3343,7 +4180,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3354,7 +4191,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3365,7 +4202,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3376,7 +4213,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3387,7 +4224,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3398,7 +4235,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3409,7 +4246,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3420,7 +4257,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3431,7 +4268,7 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3442,7 +4279,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3453,7 +4290,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3464,7 +4301,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3475,7 +4312,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3486,7 +4323,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3497,7 +4334,7 @@
         <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3508,7 +4345,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3519,7 +4356,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -3530,7 +4367,7 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -3541,7 +4378,7 @@
         <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -3552,7 +4389,7 @@
         <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3563,7 +4400,7 @@
         <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3574,7 +4411,7 @@
         <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -3585,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -3596,7 +4433,7 @@
         <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -3607,7 +4444,7 @@
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -3618,7 +4455,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -3629,7 +4466,7 @@
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -3640,7 +4477,7 @@
         <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -3651,7 +4488,7 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -3662,7 +4499,7 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -3673,7 +4510,7 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -3684,7 +4521,7 @@
         <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -3695,7 +4532,7 @@
         <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -3706,7 +4543,7 @@
         <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -3717,7 +4554,7 @@
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -3728,7 +4565,7 @@
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -3739,7 +4576,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -3750,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -3761,7 +4598,7 @@
         <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -3772,7 +4609,7 @@
         <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -3783,7 +4620,7 @@
         <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -3794,7 +4631,7 @@
         <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -3805,7 +4642,7 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -3816,7 +4653,7 @@
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -3827,7 +4664,7 @@
         <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -3838,7 +4675,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -3849,7 +4686,7 @@
         <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -3860,7 +4697,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -3871,7 +4708,7 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79">
         <v>11</v>
@@ -3882,7 +4719,7 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -3893,7 +4730,7 @@
         <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -3904,7 +4741,7 @@
         <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C82">
         <v>11</v>
@@ -3915,7 +4752,7 @@
         <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -3926,7 +4763,7 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -3937,7 +4774,7 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C85">
         <v>11</v>
@@ -3948,7 +4785,7 @@
         <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -3959,7 +4796,7 @@
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -3970,7 +4807,7 @@
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -3981,7 +4818,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -3992,7 +4829,7 @@
         <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -4003,7 +4840,7 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -4014,7 +4851,7 @@
         <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -4025,7 +4862,7 @@
         <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -4036,7 +4873,7 @@
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -4047,7 +4884,7 @@
         <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -4058,7 +4895,7 @@
         <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C96">
         <v>14</v>
@@ -4069,7 +4906,7 @@
         <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -4080,7 +4917,7 @@
         <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C98">
         <v>14</v>
@@ -4091,7 +4928,7 @@
         <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C99">
         <v>14</v>
@@ -4102,7 +4939,7 @@
         <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C100">
         <v>14</v>
@@ -4113,7 +4950,7 @@
         <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C101">
         <v>14</v>
@@ -4124,7 +4961,7 @@
         <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -4135,7 +4972,7 @@
         <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C103">
         <v>14</v>
@@ -4146,7 +4983,7 @@
         <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C104">
         <v>14</v>
@@ -4157,7 +4994,7 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C105">
         <v>14</v>
@@ -4168,7 +5005,7 @@
         <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -4179,7 +5016,7 @@
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -4190,7 +5027,7 @@
         <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -4201,7 +5038,7 @@
         <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -4212,7 +5049,7 @@
         <v>159</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -4223,7 +5060,7 @@
         <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C111">
         <v>15</v>
@@ -4234,7 +5071,7 @@
         <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -4245,7 +5082,7 @@
         <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C113">
         <v>15</v>
@@ -4256,7 +5093,7 @@
         <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -4267,7 +5104,7 @@
         <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -4278,7 +5115,7 @@
         <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C116">
         <v>17</v>
@@ -4289,7 +5126,7 @@
         <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C117">
         <v>17</v>
@@ -4300,7 +5137,7 @@
         <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C118">
         <v>17</v>
@@ -4311,7 +5148,7 @@
         <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -4322,7 +5159,7 @@
         <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C120">
         <v>17</v>
@@ -4333,7 +5170,7 @@
         <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C121">
         <v>17</v>
@@ -4344,7 +5181,7 @@
         <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C122">
         <v>17</v>
@@ -4355,7 +5192,7 @@
         <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -4366,7 +5203,7 @@
         <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C124">
         <v>17</v>
@@ -4377,7 +5214,7 @@
         <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C125">
         <v>17</v>
@@ -4388,7 +5225,7 @@
         <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C126">
         <v>19</v>
@@ -4399,7 +5236,7 @@
         <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C127">
         <v>19</v>
@@ -4410,7 +5247,7 @@
         <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C128">
         <v>19</v>
@@ -4421,7 +5258,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C129">
         <v>19</v>
@@ -4432,7 +5269,7 @@
         <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C130">
         <v>19</v>
@@ -4443,7 +5280,7 @@
         <v>193</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C131">
         <v>19</v>
@@ -4454,7 +5291,7 @@
         <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C132">
         <v>19</v>
@@ -4465,7 +5302,7 @@
         <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C133">
         <v>19</v>
@@ -4476,7 +5313,7 @@
         <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C134">
         <v>19</v>
@@ -4487,7 +5324,7 @@
         <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C135">
         <v>20</v>
@@ -4498,7 +5335,7 @@
         <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C136">
         <v>20</v>
@@ -4509,7 +5346,7 @@
         <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C137">
         <v>20</v>
@@ -4520,7 +5357,7 @@
         <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C138">
         <v>20</v>
@@ -4531,7 +5368,7 @@
         <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C139">
         <v>20</v>
@@ -4542,7 +5379,7 @@
         <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C140">
         <v>20</v>
@@ -4553,7 +5390,7 @@
         <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C141">
         <v>20</v>
@@ -4564,7 +5401,7 @@
         <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C142">
         <v>20</v>
@@ -4575,7 +5412,7 @@
         <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -4586,7 +5423,7 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -4597,7 +5434,7 @@
         <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C145">
         <v>20</v>
@@ -4608,7 +5445,7 @@
         <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C146">
         <v>22</v>
@@ -4619,7 +5456,7 @@
         <v>217</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C147">
         <v>22</v>
@@ -4630,7 +5467,7 @@
         <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C148">
         <v>22</v>
@@ -4641,7 +5478,7 @@
         <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C149">
         <v>22</v>
@@ -4652,7 +5489,7 @@
         <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C150">
         <v>22</v>
@@ -4663,7 +5500,7 @@
         <v>221</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C151">
         <v>22</v>
@@ -4674,7 +5511,7 @@
         <v>222</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C152">
         <v>22</v>
@@ -4685,7 +5522,7 @@
         <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C153">
         <v>22</v>
@@ -4696,7 +5533,7 @@
         <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C154">
         <v>22</v>
@@ -4707,7 +5544,7 @@
         <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C155">
         <v>22</v>
@@ -4718,7 +5555,7 @@
         <v>230</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C156">
         <v>22</v>
@@ -4729,7 +5566,7 @@
         <v>231</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C157">
         <v>22</v>
@@ -4740,7 +5577,7 @@
         <v>232</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C158">
         <v>22</v>
@@ -4751,7 +5588,7 @@
         <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C159">
         <v>24</v>
@@ -4762,7 +5599,7 @@
         <v>234</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C160">
         <v>24</v>
@@ -4773,7 +5610,7 @@
         <v>235</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C161">
         <v>24</v>
@@ -4784,7 +5621,7 @@
         <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C162">
         <v>24</v>
@@ -4795,7 +5632,7 @@
         <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C163">
         <v>24</v>
@@ -4806,7 +5643,7 @@
         <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C164">
         <v>24</v>
@@ -4817,7 +5654,7 @@
         <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C165">
         <v>24</v>
@@ -4828,7 +5665,7 @@
         <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C166">
         <v>24</v>
@@ -4839,7 +5676,7 @@
         <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C167">
         <v>24</v>
@@ -4850,7 +5687,7 @@
         <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C168">
         <v>24</v>
@@ -4861,7 +5698,7 @@
         <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C169">
         <v>25</v>
@@ -4872,7 +5709,7 @@
         <v>247</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C170">
         <v>25</v>
@@ -4883,7 +5720,7 @@
         <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C171">
         <v>25</v>
@@ -4894,7 +5731,7 @@
         <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C172">
         <v>25</v>
@@ -4905,7 +5742,7 @@
         <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C173">
         <v>25</v>
@@ -4916,7 +5753,7 @@
         <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C174">
         <v>25</v>
@@ -4927,7 +5764,7 @@
         <v>252</v>
       </c>
       <c r="B175" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C175">
         <v>25</v>
@@ -4938,7 +5775,7 @@
         <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C176">
         <v>25</v>
@@ -4949,7 +5786,7 @@
         <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C177">
         <v>25</v>
@@ -4960,7 +5797,7 @@
         <v>258</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C178">
         <v>25</v>
@@ -4971,7 +5808,7 @@
         <v>259</v>
       </c>
       <c r="B179" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C179">
         <v>25</v>
@@ -5014,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5025,7 +5862,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5036,7 +5873,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5047,7 +5884,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5058,7 +5895,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5069,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5080,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5091,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5102,7 +5939,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5113,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5124,7 +5961,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5135,7 +5972,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5146,7 +5983,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5157,7 +5994,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5168,7 +6005,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -5179,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -5190,7 +6027,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -5201,7 +6038,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -5212,7 +6049,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5223,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -5234,7 +6071,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5245,7 +6082,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -5256,7 +6093,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5267,7 +6104,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5278,7 +6115,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5289,7 +6126,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -5300,7 +6137,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5311,7 +6148,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -5322,7 +6159,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -5333,7 +6170,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -5344,7 +6181,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -5355,7 +6192,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -5366,7 +6203,7 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -5377,7 +6214,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -5388,7 +6225,7 @@
         <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -5399,7 +6236,7 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5410,7 +6247,7 @@
         <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5421,7 +6258,7 @@
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5432,7 +6269,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5443,7 +6280,7 @@
         <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5454,7 +6291,7 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5465,7 +6302,7 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5476,7 +6313,7 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5487,7 +6324,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -5498,7 +6335,7 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -5509,7 +6346,7 @@
         <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5520,7 +6357,7 @@
         <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5531,7 +6368,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5542,7 +6379,7 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5553,7 +6390,7 @@
         <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5564,7 +6401,7 @@
         <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -5575,7 +6412,7 @@
         <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5586,7 +6423,7 @@
         <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5597,7 +6434,7 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5608,7 +6445,7 @@
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5619,7 +6456,7 @@
         <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5630,7 +6467,7 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -5641,7 +6478,7 @@
         <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -5652,7 +6489,7 @@
         <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -5663,7 +6500,7 @@
         <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -5674,7 +6511,7 @@
         <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -5685,7 +6522,7 @@
         <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -5696,7 +6533,7 @@
         <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -5707,7 +6544,7 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -5718,7 +6555,7 @@
         <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -5729,7 +6566,7 @@
         <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -5740,7 +6577,7 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -5751,7 +6588,7 @@
         <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -5762,7 +6599,7 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -5773,7 +6610,7 @@
         <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -5784,7 +6621,7 @@
         <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -5795,7 +6632,7 @@
         <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -5806,7 +6643,7 @@
         <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -5817,7 +6654,7 @@
         <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5828,7 +6665,7 @@
         <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -5839,7 +6676,7 @@
         <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -5850,7 +6687,7 @@
         <v>220</v>
       </c>
       <c r="B78" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5861,7 +6698,7 @@
         <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5872,7 +6709,7 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -5883,7 +6720,7 @@
         <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5894,7 +6731,7 @@
         <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5905,7 +6742,7 @@
         <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -5916,7 +6753,7 @@
         <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5927,7 +6764,7 @@
         <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -5938,7 +6775,7 @@
         <v>244</v>
       </c>
       <c r="B86" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -5949,7 +6786,7 @@
         <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -5960,7 +6797,7 @@
         <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -5971,7 +6808,7 @@
         <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -5982,7 +6819,7 @@
         <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C90">
         <v>7</v>
@@ -5993,7 +6830,7 @@
         <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -6004,7 +6841,7 @@
         <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -6015,7 +6852,7 @@
         <v>271</v>
       </c>
       <c r="B93" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -6026,7 +6863,7 @@
         <v>274</v>
       </c>
       <c r="B94" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -6037,7 +6874,7 @@
         <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -6048,7 +6885,7 @@
         <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -6059,7 +6896,7 @@
         <v>283</v>
       </c>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -6070,7 +6907,7 @@
         <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -6081,7 +6918,7 @@
         <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -6092,7 +6929,7 @@
         <v>292</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C100">
         <v>7</v>
@@ -6103,7 +6940,7 @@
         <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -6114,7 +6951,7 @@
         <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -6125,7 +6962,7 @@
         <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -6136,7 +6973,7 @@
         <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -6147,7 +6984,7 @@
         <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -6158,7 +6995,7 @@
         <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -6169,7 +7006,7 @@
         <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -6180,7 +7017,7 @@
         <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -6191,7 +7028,7 @@
         <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -6202,7 +7039,7 @@
         <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -6213,7 +7050,7 @@
         <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -6224,7 +7061,7 @@
         <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -6235,7 +7072,7 @@
         <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -6246,7 +7083,7 @@
         <v>334</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -6257,7 +7094,7 @@
         <v>337</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -6268,7 +7105,7 @@
         <v>340</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -6279,7 +7116,7 @@
         <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -6290,7 +7127,7 @@
         <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -6301,7 +7138,7 @@
         <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -6312,7 +7149,7 @@
         <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -6323,7 +7160,7 @@
         <v>355</v>
       </c>
       <c r="B121" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -6334,7 +7171,7 @@
         <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C122">
         <v>9</v>
@@ -6345,7 +7182,7 @@
         <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -6356,7 +7193,7 @@
         <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -6367,7 +7204,7 @@
         <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -6378,7 +7215,7 @@
         <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -6389,7 +7226,7 @@
         <v>373</v>
       </c>
       <c r="B127" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C127">
         <v>9</v>
@@ -6400,7 +7237,7 @@
         <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -6411,7 +7248,7 @@
         <v>379</v>
       </c>
       <c r="B129" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C129">
         <v>16</v>
@@ -6422,7 +7259,7 @@
         <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C130">
         <v>16</v>
@@ -6433,7 +7270,7 @@
         <v>385</v>
       </c>
       <c r="B131" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C131">
         <v>16</v>
@@ -6444,7 +7281,7 @@
         <v>388</v>
       </c>
       <c r="B132" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C132">
         <v>16</v>
@@ -6455,7 +7292,7 @@
         <v>391</v>
       </c>
       <c r="B133" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C133">
         <v>16</v>
@@ -6466,7 +7303,7 @@
         <v>394</v>
       </c>
       <c r="B134" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C134">
         <v>16</v>
@@ -6477,7 +7314,7 @@
         <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C135">
         <v>16</v>
@@ -6488,7 +7325,7 @@
         <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C136">
         <v>16</v>
@@ -6499,7 +7336,7 @@
         <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C137">
         <v>16</v>
@@ -6510,7 +7347,7 @@
         <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C138">
         <v>16</v>
@@ -6521,7 +7358,7 @@
         <v>409</v>
       </c>
       <c r="B139" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C139">
         <v>16</v>
@@ -6532,7 +7369,7 @@
         <v>412</v>
       </c>
       <c r="B140" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C140">
         <v>16</v>
@@ -6543,7 +7380,7 @@
         <v>415</v>
       </c>
       <c r="B141" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C141">
         <v>16</v>
@@ -6554,7 +7391,7 @@
         <v>418</v>
       </c>
       <c r="B142" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C142">
         <v>16</v>
@@ -6565,7 +7402,7 @@
         <v>421</v>
       </c>
       <c r="B143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C143">
         <v>16</v>
@@ -6576,7 +7413,7 @@
         <v>424</v>
       </c>
       <c r="B144" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C144">
         <v>16</v>
@@ -6587,7 +7424,7 @@
         <v>427</v>
       </c>
       <c r="B145" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C145">
         <v>16</v>
@@ -6598,7 +7435,7 @@
         <v>430</v>
       </c>
       <c r="B146" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C146">
         <v>16</v>
@@ -6609,7 +7446,7 @@
         <v>433</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -6620,7 +7457,7 @@
         <v>436</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -6631,7 +7468,7 @@
         <v>439</v>
       </c>
       <c r="B149" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C149">
         <v>16</v>
@@ -6642,7 +7479,7 @@
         <v>442</v>
       </c>
       <c r="B150" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -6653,7 +7490,7 @@
         <v>445</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C151">
         <v>16</v>
@@ -6664,7 +7501,7 @@
         <v>448</v>
       </c>
       <c r="B152" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C152">
         <v>16</v>
@@ -6675,7 +7512,7 @@
         <v>451</v>
       </c>
       <c r="B153" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C153">
         <v>16</v>
@@ -6686,7 +7523,7 @@
         <v>454</v>
       </c>
       <c r="B154" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -6697,7 +7534,7 @@
         <v>457</v>
       </c>
       <c r="B155" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C155">
         <v>17</v>
@@ -6708,7 +7545,7 @@
         <v>460</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C156">
         <v>17</v>
@@ -6719,7 +7556,7 @@
         <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C157">
         <v>17</v>
@@ -6730,7 +7567,7 @@
         <v>466</v>
       </c>
       <c r="B158" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C158">
         <v>17</v>
@@ -6741,7 +7578,7 @@
         <v>469</v>
       </c>
       <c r="B159" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C159">
         <v>17</v>
@@ -6752,7 +7589,7 @@
         <v>472</v>
       </c>
       <c r="B160" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C160">
         <v>17</v>
@@ -6763,7 +7600,7 @@
         <v>475</v>
       </c>
       <c r="B161" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C161">
         <v>17</v>
@@ -6774,7 +7611,7 @@
         <v>478</v>
       </c>
       <c r="B162" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C162">
         <v>17</v>
@@ -6785,7 +7622,7 @@
         <v>481</v>
       </c>
       <c r="B163" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C163">
         <v>17</v>
@@ -6796,7 +7633,7 @@
         <v>484</v>
       </c>
       <c r="B164" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C164">
         <v>17</v>
@@ -6807,7 +7644,7 @@
         <v>487</v>
       </c>
       <c r="B165" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C165">
         <v>17</v>
@@ -6818,7 +7655,7 @@
         <v>490</v>
       </c>
       <c r="B166" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C166">
         <v>17</v>
@@ -6829,7 +7666,7 @@
         <v>493</v>
       </c>
       <c r="B167" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C167">
         <v>17</v>
@@ -6840,7 +7677,7 @@
         <v>496</v>
       </c>
       <c r="B168" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C168">
         <v>17</v>
@@ -6851,7 +7688,7 @@
         <v>499</v>
       </c>
       <c r="B169" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C169">
         <v>17</v>
@@ -6862,7 +7699,7 @@
         <v>502</v>
       </c>
       <c r="B170" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C170">
         <v>17</v>
@@ -6873,7 +7710,7 @@
         <v>505</v>
       </c>
       <c r="B171" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C171">
         <v>17</v>
@@ -6884,7 +7721,7 @@
         <v>508</v>
       </c>
       <c r="B172" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C172">
         <v>17</v>
@@ -6895,7 +7732,7 @@
         <v>511</v>
       </c>
       <c r="B173" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C173">
         <v>17</v>
@@ -6906,7 +7743,7 @@
         <v>514</v>
       </c>
       <c r="B174" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C174">
         <v>17</v>
@@ -6917,7 +7754,7 @@
         <v>517</v>
       </c>
       <c r="B175" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C175">
         <v>17</v>
@@ -6928,7 +7765,7 @@
         <v>520</v>
       </c>
       <c r="B176" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C176">
         <v>17</v>
@@ -6939,7 +7776,7 @@
         <v>523</v>
       </c>
       <c r="B177" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C177">
         <v>17</v>
@@ -6950,7 +7787,7 @@
         <v>526</v>
       </c>
       <c r="B178" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C178">
         <v>18</v>
@@ -6961,7 +7798,7 @@
         <v>529</v>
       </c>
       <c r="B179" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C179">
         <v>18</v>
@@ -6972,7 +7809,7 @@
         <v>532</v>
       </c>
       <c r="B180" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C180">
         <v>18</v>
@@ -6983,7 +7820,7 @@
         <v>535</v>
       </c>
       <c r="B181" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C181">
         <v>18</v>
@@ -6994,7 +7831,7 @@
         <v>538</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C182">
         <v>18</v>
@@ -7005,7 +7842,7 @@
         <v>541</v>
       </c>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C183">
         <v>18</v>
@@ -7016,7 +7853,7 @@
         <v>544</v>
       </c>
       <c r="B184" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C184">
         <v>18</v>
@@ -7027,7 +7864,7 @@
         <v>547</v>
       </c>
       <c r="B185" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C185">
         <v>18</v>
@@ -7038,7 +7875,7 @@
         <v>550</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C186">
         <v>18</v>
@@ -7049,7 +7886,7 @@
         <v>553</v>
       </c>
       <c r="B187" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C187">
         <v>18</v>
@@ -7060,7 +7897,7 @@
         <v>556</v>
       </c>
       <c r="B188" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C188">
         <v>18</v>
@@ -7071,7 +7908,7 @@
         <v>559</v>
       </c>
       <c r="B189" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C189">
         <v>18</v>
@@ -7082,7 +7919,7 @@
         <v>562</v>
       </c>
       <c r="B190" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C190">
         <v>18</v>
@@ -7093,7 +7930,7 @@
         <v>565</v>
       </c>
       <c r="B191" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C191">
         <v>18</v>
@@ -7104,7 +7941,7 @@
         <v>568</v>
       </c>
       <c r="B192" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C192">
         <v>18</v>
@@ -7115,7 +7952,7 @@
         <v>571</v>
       </c>
       <c r="B193" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C193">
         <v>18</v>
@@ -7126,7 +7963,7 @@
         <v>574</v>
       </c>
       <c r="B194" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C194">
         <v>18</v>
@@ -7137,7 +7974,7 @@
         <v>577</v>
       </c>
       <c r="B195" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C195">
         <v>18</v>
@@ -7148,7 +7985,7 @@
         <v>580</v>
       </c>
       <c r="B196" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C196">
         <v>18</v>
@@ -7159,7 +7996,7 @@
         <v>583</v>
       </c>
       <c r="B197" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C197">
         <v>18</v>
@@ -7170,7 +8007,7 @@
         <v>586</v>
       </c>
       <c r="B198" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C198">
         <v>18</v>
@@ -7181,7 +8018,7 @@
         <v>589</v>
       </c>
       <c r="B199" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C199">
         <v>18</v>
@@ -7192,7 +8029,7 @@
         <v>592</v>
       </c>
       <c r="B200" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C200">
         <v>19</v>
@@ -7203,7 +8040,7 @@
         <v>622</v>
       </c>
       <c r="B201" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C201">
         <v>19</v>
@@ -7214,7 +8051,7 @@
         <v>623</v>
       </c>
       <c r="B202" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C202">
         <v>19</v>
@@ -7225,7 +8062,7 @@
         <v>625</v>
       </c>
       <c r="B203" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C203">
         <v>19</v>
@@ -7236,7 +8073,7 @@
         <v>626</v>
       </c>
       <c r="B204" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C204">
         <v>19</v>
@@ -7247,7 +8084,7 @@
         <v>628</v>
       </c>
       <c r="B205" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C205">
         <v>19</v>
@@ -7258,7 +8095,7 @@
         <v>631</v>
       </c>
       <c r="B206" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C206">
         <v>19</v>
@@ -7269,7 +8106,7 @@
         <v>632</v>
       </c>
       <c r="B207" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C207">
         <v>19</v>
@@ -7280,7 +8117,7 @@
         <v>634</v>
       </c>
       <c r="B208" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C208">
         <v>19</v>
@@ -7291,7 +8128,7 @@
         <v>637</v>
       </c>
       <c r="B209" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C209">
         <v>19</v>
@@ -7302,7 +8139,7 @@
         <v>640</v>
       </c>
       <c r="B210" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C210">
         <v>20</v>
@@ -7313,7 +8150,7 @@
         <v>643</v>
       </c>
       <c r="B211" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C211">
         <v>20</v>
@@ -7324,7 +8161,7 @@
         <v>646</v>
       </c>
       <c r="B212" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C212">
         <v>20</v>
@@ -7335,7 +8172,7 @@
         <v>649</v>
       </c>
       <c r="B213" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C213">
         <v>20</v>
@@ -7346,7 +8183,7 @@
         <v>652</v>
       </c>
       <c r="B214" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C214">
         <v>20</v>
@@ -7357,7 +8194,7 @@
         <v>655</v>
       </c>
       <c r="B215" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C215">
         <v>20</v>
@@ -7368,7 +8205,7 @@
         <v>658</v>
       </c>
       <c r="B216" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C216">
         <v>20</v>
@@ -7379,7 +8216,7 @@
         <v>661</v>
       </c>
       <c r="B217" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C217">
         <v>20</v>
@@ -7390,7 +8227,7 @@
         <v>664</v>
       </c>
       <c r="B218" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C218">
         <v>20</v>
@@ -7401,7 +8238,7 @@
         <v>667</v>
       </c>
       <c r="B219" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C219">
         <v>20</v>
@@ -7412,7 +8249,7 @@
         <v>670</v>
       </c>
       <c r="B220" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C220">
         <v>20</v>
@@ -7423,7 +8260,7 @@
         <v>673</v>
       </c>
       <c r="B221" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C221">
         <v>20</v>
@@ -7434,7 +8271,7 @@
         <v>676</v>
       </c>
       <c r="B222" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C222">
         <v>20</v>
@@ -7445,7 +8282,7 @@
         <v>679</v>
       </c>
       <c r="B223" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C223">
         <v>20</v>
@@ -7456,7 +8293,7 @@
         <v>682</v>
       </c>
       <c r="B224" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C224">
         <v>20</v>
@@ -7467,7 +8304,7 @@
         <v>685</v>
       </c>
       <c r="B225" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C225">
         <v>20</v>
@@ -7478,7 +8315,7 @@
         <v>595</v>
       </c>
       <c r="B226" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C226">
         <v>21</v>
@@ -7489,7 +8326,7 @@
         <v>598</v>
       </c>
       <c r="B227" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C227">
         <v>21</v>
@@ -7500,7 +8337,7 @@
         <v>601</v>
       </c>
       <c r="B228" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C228">
         <v>21</v>
@@ -7511,7 +8348,7 @@
         <v>602</v>
       </c>
       <c r="B229" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C229">
         <v>21</v>
@@ -7522,7 +8359,7 @@
         <v>604</v>
       </c>
       <c r="B230" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C230">
         <v>21</v>
@@ -7533,7 +8370,7 @@
         <v>607</v>
       </c>
       <c r="B231" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C231">
         <v>21</v>
@@ -7544,7 +8381,7 @@
         <v>610</v>
       </c>
       <c r="B232" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C232">
         <v>21</v>
@@ -7555,7 +8392,7 @@
         <v>611</v>
       </c>
       <c r="B233" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C233">
         <v>21</v>
@@ -7566,7 +8403,7 @@
         <v>613</v>
       </c>
       <c r="B234" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C234">
         <v>21</v>
@@ -7577,7 +8414,7 @@
         <v>616</v>
       </c>
       <c r="B235" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C235">
         <v>21</v>
@@ -7588,7 +8425,7 @@
         <v>617</v>
       </c>
       <c r="B236" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C236">
         <v>21</v>
@@ -7599,7 +8436,7 @@
         <v>619</v>
       </c>
       <c r="B237" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C237">
         <v>21</v>
@@ -7610,7 +8447,7 @@
         <v>620</v>
       </c>
       <c r="B238" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C238">
         <v>21</v>
@@ -7654,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7662,7 +8499,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +8539,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7710,7 +8547,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7746,57 +8583,57 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -7813,25 +8650,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -7867,35 +8704,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/semester3-real-estate-back-end/semester3_data.xlsx
+++ b/semester3-real-estate-back-end/semester3_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dvds\Desktop\semester3\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\RiderProjects\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8176FC5-068A-44A9-BDF6-3393C38F3F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B454F49-EECB-41C5-A2AD-8F9948696C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="620">
   <si>
     <t>DirectionId</t>
   </si>
@@ -1962,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1970,11 +1970,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2259,7 +2257,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,361 +2391,352 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:XFD1048576"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="5" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="38" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="49.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>618</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>235000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>1534</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2">
         <v>206</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" t="s">
         <v>562</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>619</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>583</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>385000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>432</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>102</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s">
         <v>567</v>
       </c>
-      <c r="L3" s="5" t="str">
-        <f>$L$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="M3" s="5" t="str">
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="str">
         <f>$M$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="N3" t="str">
         <f>$N$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="O3" t="str">
         <f>$O$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="5" t="str">
+      <c r="Q3" t="str">
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>572</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>573</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>572</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>579000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>2978</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>306</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>574</v>
       </c>
-      <c r="L4" s="5" t="str">
-        <f>$L$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="M4" s="5" t="str">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="str">
         <f>$M$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f>$N$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="O4" s="5" t="str">
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="str">
         <f>$O$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="5" t="str">
+      <c r="Q4" t="str">
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>585</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>586</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>585</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>252300</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>1584</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>204</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>587</v>
       </c>
-      <c r="L5" s="5" t="str">
-        <f>$L$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="M5" s="5" t="str">
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="str">
         <f>$M$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="N5" s="5" t="str">
-        <f>$N$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="O5" s="5" t="str">
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="str">
         <f>$O$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="str">
+      <c r="Q5" t="str">
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>600</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>601</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>600</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>479909</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>2023</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>906</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" t="s">
         <v>602</v>
       </c>
-      <c r="L6" s="5" t="str">
-        <f>$L$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="M6" s="5" t="str">
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="str">
         <f>$M$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="N6" s="5" t="str">
-        <f>$N$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
-      </c>
-      <c r="O6" s="5" t="str">
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="str">
         <f>$O$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="5" t="str">
+      <c r="Q6" t="str">
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
@@ -2770,7 +2759,7 @@
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2781,7 +2770,7 @@
       <c r="B1" t="s">
         <v>561</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
@@ -2795,7 +2784,7 @@
       <c r="B2" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -2809,7 +2798,7 @@
       <c r="B3" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -2823,7 +2812,7 @@
       <c r="B4" t="s">
         <v>564</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -2837,7 +2826,7 @@
       <c r="B5" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -2851,7 +2840,7 @@
       <c r="B6" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -2865,7 +2854,7 @@
       <c r="B7" t="s">
         <v>568</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
@@ -2879,7 +2868,7 @@
       <c r="B8" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
@@ -2893,7 +2882,7 @@
       <c r="B9" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -2907,7 +2896,7 @@
       <c r="B10" t="s">
         <v>571</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -2921,7 +2910,7 @@
       <c r="B11" t="s">
         <v>574</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -2935,7 +2924,7 @@
       <c r="B12" t="s">
         <v>575</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -2949,7 +2938,7 @@
       <c r="B13" t="s">
         <v>576</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
@@ -2963,7 +2952,7 @@
       <c r="B14" t="s">
         <v>577</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
@@ -2977,7 +2966,7 @@
       <c r="B15" t="s">
         <v>578</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
@@ -2991,7 +2980,7 @@
       <c r="B16" t="s">
         <v>587</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
@@ -3005,7 +2994,7 @@
       <c r="B17" t="s">
         <v>588</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
@@ -3019,7 +3008,7 @@
       <c r="B18" t="s">
         <v>589</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -3033,7 +3022,7 @@
       <c r="B19" t="s">
         <v>590</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
@@ -3047,7 +3036,7 @@
       <c r="B20" t="s">
         <v>591</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
@@ -3061,7 +3050,7 @@
       <c r="B21" t="s">
         <v>592</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
@@ -3075,7 +3064,7 @@
       <c r="B22" t="s">
         <v>602</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
       <c r="D22" t="s">
@@ -3089,7 +3078,7 @@
       <c r="B23" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
       <c r="D23" t="s">
@@ -3103,7 +3092,7 @@
       <c r="B24" t="s">
         <v>604</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
       <c r="D24" t="s">
@@ -3117,7 +3106,7 @@
       <c r="B25" t="s">
         <v>605</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
@@ -3131,7 +3120,7 @@
       <c r="B26" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
       <c r="D26" t="s">
@@ -3145,7 +3134,7 @@
       <c r="B27" t="s">
         <v>607</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
       <c r="D27" t="s">
@@ -3159,7 +3148,7 @@
       <c r="B28" t="s">
         <v>608</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
       <c r="D28" t="s">
@@ -3173,7 +3162,7 @@
       <c r="B29" t="s">
         <v>609</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
@@ -8512,7 +8501,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/semester3-real-estate-back-end/semester3_data.xlsx
+++ b/semester3-real-estate-back-end/semester3_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\RiderProjects\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B454F49-EECB-41C5-A2AD-8F9948696C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F465C06-B8C3-4737-91CD-2A3DA2E1BFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="621">
   <si>
     <t>DirectionId</t>
   </si>
@@ -1907,6 +1907,9 @@
   </si>
   <si>
     <t>This unique barndominium offers an open floor plan and is situated on 9.93 wooded acres, providing the ultimate blend of rustic charm and modern living. The spacious living area is located on the second floor and features a deck that offers stunning views of a serene stock pond, mature woods &amp; abundance of wildlife. For the hobbyist or professional, the ground floor shop is equipped with a 4-post car lift, perfect for all your automotive projects. Nestled along the San Bernard River, this property is a haven for outdoor enthusiasts, boasting abundant opportunities for fishing, hunting, and wildlife observation. Embrace a lifestyle of tranquility and adventure in this one-of-a-kind barndominium retreat!</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1973,6 +1976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2388,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771BEEF-8713-4247-B2C1-625354279C29}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,9 +2412,10 @@
     <col min="15" max="15" width="21.140625" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="38" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2462,8 +2467,11 @@
       <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2515,8 +2523,11 @@
       <c r="Q2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2572,8 +2583,11 @@
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2628,8 +2642,11 @@
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2684,8 +2701,11 @@
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2739,6 +2759,9 @@
       <c r="Q6" t="str">
         <f>$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+      <c r="R6" s="4">
+        <v>82144</v>
       </c>
     </row>
   </sheetData>

--- a/semester3-real-estate-back-end/semester3_data.xlsx
+++ b/semester3-real-estate-back-end/semester3_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\RiderProjects\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dvds\Desktop\semester3\semester3-real-estate-back-end\semester3-real-estate-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F465C06-B8C3-4737-91CD-2A3DA2E1BFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0BD502-A4E4-4BD7-B7D7-71E2004ED6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="675">
   <si>
     <t>DirectionId</t>
   </si>
@@ -130,18 +130,12 @@
     <t>70acc54a-44e0-4d31-8b07-52b5b82e9e55</t>
   </si>
   <si>
-    <t>cuong</t>
-  </si>
-  <si>
     <t xml:space="preserve">UserName </t>
   </si>
   <si>
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t>cuong@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">EmailConfirmed </t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>ffe56d39-3939-4c5c-ade9-8f147dca9607</t>
   </si>
   <si>
-    <t>Certificate of Land Use Rights, House Ownership, and Other Assets Attached to Land</t>
-  </si>
-  <si>
     <t>For Sell</t>
   </si>
   <si>
@@ -1735,15 +1726,6 @@
     <t>ImageUrl</t>
   </si>
   <si>
-    <t>/images/1.1.webp</t>
-  </si>
-  <si>
-    <t>/images/1.2.jpg</t>
-  </si>
-  <si>
-    <t>/images/1.3.webp</t>
-  </si>
-  <si>
     <t>/images/1.4.jpg</t>
   </si>
   <si>
@@ -1910,6 +1892,186 @@
   </si>
   <si>
     <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>20000 Mitchell Place Unit 37</t>
+  </si>
+  <si>
+    <t>Walk into pure elegance! An open and remodeled floor plan greets you with a beautiful fireplace in the large living room filled with natural light. This home feels like you have just walked into the Broadmoor and is in spectacular condition. Hardwood floors throughout the main floor will escort you from the living room into the dining room/eating area which opens up thru double glass sliders onto your massive and over sized corner lot private patio! The enormous L shaped patio feels the Colorado sunshine for most of the day with plenty of space for all your bbcue and sitting area needs with newer deck. The eating area opens into the chefs gourmet kitchen with granite counter tops, white cabinets, and ss appliances. Plantation shudders. A large main floor laundry room and beautiful powder room complete this level along with an attached 2 car garage</t>
+  </si>
+  <si>
+    <t>/images/6.1.jpg</t>
+  </si>
+  <si>
+    <t>/images/6.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/6.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/6.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/6.5.jpg</t>
+  </si>
+  <si>
+    <t>/images/6.6.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9629</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9630</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9631</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9632</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9633</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9634</t>
+  </si>
+  <si>
+    <t>/images/7.1.jpg</t>
+  </si>
+  <si>
+    <t>/images/7.2.webp</t>
+  </si>
+  <si>
+    <t>/images/7.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/7.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/7.5.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9635</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9636</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9637</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9638</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9639</t>
+  </si>
+  <si>
+    <t>/images/8.1.jpg</t>
+  </si>
+  <si>
+    <t>Seattle, WA 98122</t>
+  </si>
+  <si>
+    <t>Welcome to the inviting (+ newer) townhome community of 7 units in Madrona! Lightly lived in w/ only 1 owner, this end unit offers privacy + charm. UPGRADES: all-new window treatments, added storage in the office/flex room, stairway crown molding + an upgraded washer/dryer in the primary. Lower level boasts a spacious office/flex room (perfect as a BR) w/ ample natural light, dual entry, + 1/2 bath</t>
+  </si>
+  <si>
+    <t>Seattle, WA 98108</t>
+  </si>
+  <si>
+    <t>Welcome to where luxury meets convenience This 4-bedroom townhouse with 1,650 sq. feet is quite spacious w/contemporary features like a gorgeous kitchen island, quartz counters, designer cabinets, stainless-steel appliances, engineered hardwood floors, custom finishes throughout, with a sleek &amp; modern feel. 2 bedrooms and a full bath on the 2nd floor, 3rd floor has another bedroom, private suite &amp; access to the private rooftop retreat. Fantastic location in West Seattle’s South Park is a vibrant &amp; happening area with award-winning restaurants, easy access to freeways &amp; airport.</t>
+  </si>
+  <si>
+    <t>/images/8.2.webp</t>
+  </si>
+  <si>
+    <t>/images/8.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/8.5.jpg</t>
+  </si>
+  <si>
+    <t>/images/8.6.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9640</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9641</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9642</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9643</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9644</t>
+  </si>
+  <si>
+    <t>/images/9.1.jpg</t>
+  </si>
+  <si>
+    <t>/images/9.2.jpg</t>
+  </si>
+  <si>
+    <t>/images/9.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/9.4.jpg</t>
+  </si>
+  <si>
+    <t>/images/9.5.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9645</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9646</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9647</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9648</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9649</t>
+  </si>
+  <si>
+    <t>7526 43rd Ave S</t>
+  </si>
+  <si>
+    <t>Enjoy 3 bed, 3.5 bath modern townhome in Brighton Seattle &amp; 1600 sqft of living space. w/ rooftop deck. A block from the light rail &amp; massive park, this home boasts a perfect blend of high design &amp; impeccable quality, characterized by clean lines &amp; open living spaces. Abundant natural light fills each room, complementing the home's welcoming ambiance. Newer Carpet, Newer Kitchen Cabinets.</t>
+  </si>
+  <si>
+    <t>Certificate of Land Use Rights</t>
+  </si>
+  <si>
+    <t>/images/1.2.webp</t>
+  </si>
+  <si>
+    <t>/images/1.3.jpg</t>
+  </si>
+  <si>
+    <t>/images/1.5.jpg</t>
+  </si>
+  <si>
+    <t>/images/1.6.jpg</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9650</t>
+  </si>
+  <si>
+    <t>ffe56d39-3939-4c5c-ade9-8f147dca9651</t>
+  </si>
+  <si>
+    <t>/images/1.1.jpg</t>
+  </si>
+  <si>
+    <t>phuc</t>
+  </si>
+  <si>
+    <t>phuc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +2127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1977,6 +2139,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2290,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,31 +2477,31 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2529,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,15 +2537,15 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2392,24 +2555,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771BEEF-8713-4247-B2C1-625354279C29}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="12" width="44.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="49.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="13" max="14" width="49.7109375" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="38" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -2468,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2476,13 +2638,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E2">
         <v>235000</v>
@@ -2503,7 +2665,7 @@
         <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>562</v>
+        <v>672</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -2532,13 +2694,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E3">
         <v>385000</v>
@@ -2559,28 +2721,27 @@
         <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L3" t="s">
         <v>4</v>
       </c>
       <c r="M3" t="str">
-        <f>$M$2</f>
+        <f t="shared" ref="M3:M10" si="0">$M$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
-      <c r="N3" t="str">
-        <f>$N$2</f>
-        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      <c r="N3" t="s">
+        <v>4</v>
       </c>
       <c r="O3" t="str">
-        <f>$O$2</f>
+        <f t="shared" ref="O3:O10" si="1">$O$2</f>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="P3" s="3">
         <v>1</v>
       </c>
       <c r="Q3" t="str">
-        <f>$Q$2</f>
+        <f t="shared" ref="Q3:Q10" si="2">$Q$2</f>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
       <c r="R3" s="4">
@@ -2592,13 +2753,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E4">
         <v>579000</v>
@@ -2619,27 +2780,27 @@
         <v>306</v>
       </c>
       <c r="K4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="str">
-        <f>$M$2</f>
+        <f t="shared" si="0"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="str">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="P4" s="3">
         <v>1</v>
       </c>
       <c r="Q4" t="str">
-        <f>$Q$2</f>
+        <f t="shared" si="2"/>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
       <c r="R4" s="4">
@@ -2651,13 +2812,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E5">
         <v>252300</v>
@@ -2678,27 +2839,27 @@
         <v>204</v>
       </c>
       <c r="K5" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="str">
-        <f>$M$2</f>
+        <f t="shared" si="0"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="str">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="P5" s="3">
         <v>1</v>
       </c>
       <c r="Q5" t="str">
-        <f>$Q$2</f>
+        <f t="shared" si="2"/>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
       <c r="R5" s="4">
@@ -2707,16 +2868,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E6">
         <v>479909</v>
@@ -2737,30 +2898,266 @@
         <v>906</v>
       </c>
       <c r="K6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="str">
-        <f>$M$2</f>
+        <f t="shared" si="0"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" t="str">
-        <f>$O$2</f>
+        <f t="shared" si="1"/>
         <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
       </c>
       <c r="P6" s="3">
         <v>1</v>
       </c>
       <c r="Q6" t="str">
-        <f>$Q$2</f>
+        <f t="shared" si="2"/>
         <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
       </c>
       <c r="R6" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7">
+        <v>489000</v>
+      </c>
+      <c r="F7">
+        <v>1858</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>415</v>
+      </c>
+      <c r="K7" t="s">
+        <v>617</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+      <c r="R7" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E8">
+        <v>380000</v>
+      </c>
+      <c r="F8">
+        <v>786</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>512</v>
+      </c>
+      <c r="K8" t="s">
+        <v>629</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+      <c r="R8" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E9">
+        <v>620000</v>
+      </c>
+      <c r="F9">
+        <v>5968</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
+        <v>639</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+      <c r="R9" s="4">
+        <v>82144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D10" t="s">
+        <v>663</v>
+      </c>
+      <c r="E10">
+        <v>755000</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>653</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>ffe56d39-3939-4c5c-ade9-8f147dca9601</v>
+      </c>
+      <c r="P10" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>70acc54a-44e0-4d31-8b07-52b5b82e9e55</v>
+      </c>
+      <c r="R10" s="4">
         <v>82144</v>
       </c>
     </row>
@@ -2772,26 +3169,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76CCC07-180E-4F1C-9641-DE9BC5453AFC}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -2805,13 +3202,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>672</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +3216,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,13 +3230,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,349 +3244,671 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B13" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B15" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>587</v>
+      </c>
+      <c r="B16" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>593</v>
-      </c>
-      <c r="B16" t="s">
-        <v>587</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B17" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B22" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B23" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B24" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B25" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B27" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B28" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B29" t="s">
+        <v>601</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>623</v>
+      </c>
+      <c r="B30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" t="s">
+        <v>603</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" t="s">
         <v>617</v>
       </c>
-      <c r="B29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>626</v>
+      </c>
+      <c r="B33" t="s">
+        <v>618</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>628</v>
+      </c>
+      <c r="B35" t="s">
+        <v>620</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" t="s">
+        <v>621</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>635</v>
+      </c>
+      <c r="B37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>636</v>
+      </c>
+      <c r="B38" t="s">
+        <v>629</v>
+      </c>
+      <c r="C38" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
-        <v>599</v>
+      <c r="D38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>637</v>
+      </c>
+      <c r="B39" t="s">
+        <v>630</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>638</v>
+      </c>
+      <c r="B40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>648</v>
+      </c>
+      <c r="B41" t="s">
+        <v>632</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>649</v>
+      </c>
+      <c r="B42" t="s">
+        <v>633</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" t="s">
+        <v>639</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>651</v>
+      </c>
+      <c r="B44" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>652</v>
+      </c>
+      <c r="B45" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>658</v>
+      </c>
+      <c r="B46" t="s">
+        <v>646</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>659</v>
+      </c>
+      <c r="B47" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>660</v>
+      </c>
+      <c r="B48" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>661</v>
+      </c>
+      <c r="B49" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>662</v>
+      </c>
+      <c r="B50" t="s">
+        <v>655</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>670</v>
+      </c>
+      <c r="B51" t="s">
+        <v>656</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>671</v>
+      </c>
+      <c r="B52" t="s">
+        <v>657</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3231,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,55 +3974,55 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3347,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3355,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3363,7 +4082,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3371,7 +4090,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3387,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3395,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3403,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3411,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,7 +4138,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3427,7 +4146,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3435,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3443,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,7 +4170,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,7 +4186,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3475,7 +4194,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3483,7 +4202,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3491,7 +4210,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3499,7 +4218,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +4226,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3515,7 +4234,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +4242,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,7 +4258,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3555,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3563,7 +4282,7 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +4290,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3579,7 +4298,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3587,7 +4306,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3595,7 +4314,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3603,7 +4322,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3611,7 +4330,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3619,7 +4338,7 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3627,7 +4346,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3635,7 +4354,7 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3643,7 +4362,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3651,7 +4370,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +4378,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,7 +4386,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3675,7 +4394,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3683,7 +4402,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,7 +4410,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3699,7 +4418,7 @@
         <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,7 +4426,7 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3715,7 +4434,7 @@
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,7 +4450,7 @@
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3755,7 +4474,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3763,7 +4482,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,7 +4490,7 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3779,7 +4498,7 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3787,7 +4506,7 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,7 +4514,7 @@
         <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,7 +4522,7 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +4530,7 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3819,7 +4538,7 @@
         <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,7 +4546,7 @@
         <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3835,7 +4554,7 @@
         <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3873,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3884,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3895,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3906,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3917,7 +4636,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3928,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3939,7 +4658,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3950,7 +4669,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3961,7 +4680,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3972,7 +4691,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3983,7 +4702,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3994,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4005,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4016,7 +4735,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4027,7 +4746,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4038,7 +4757,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4049,7 +4768,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4060,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4071,7 +4790,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4082,7 +4801,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4093,7 +4812,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4104,7 +4823,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4115,7 +4834,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4126,7 +4845,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4137,7 +4856,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4148,7 +4867,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4159,7 +4878,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4170,7 +4889,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4181,7 +4900,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4192,7 +4911,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4203,7 +4922,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4214,7 +4933,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4225,7 +4944,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4236,7 +4955,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4247,7 +4966,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4258,7 +4977,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -4269,7 +4988,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4280,7 +4999,7 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -4291,7 +5010,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -4302,7 +5021,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -4313,7 +5032,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -4324,7 +5043,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -4335,7 +5054,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -4346,7 +5065,7 @@
         <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -4357,7 +5076,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -4368,7 +5087,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4379,7 +5098,7 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -4390,7 +5109,7 @@
         <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -4401,7 +5120,7 @@
         <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -4412,7 +5131,7 @@
         <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -4423,7 +5142,7 @@
         <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4434,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -4445,7 +5164,7 @@
         <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -4456,7 +5175,7 @@
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -4467,7 +5186,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -4478,7 +5197,7 @@
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -4489,7 +5208,7 @@
         <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -4500,7 +5219,7 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -4511,7 +5230,7 @@
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -4522,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -4533,7 +5252,7 @@
         <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -4544,7 +5263,7 @@
         <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -4555,7 +5274,7 @@
         <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -4566,7 +5285,7 @@
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -4577,7 +5296,7 @@
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -4588,7 +5307,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -4599,7 +5318,7 @@
         <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -4610,7 +5329,7 @@
         <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -4621,7 +5340,7 @@
         <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -4632,7 +5351,7 @@
         <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -4643,7 +5362,7 @@
         <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -4654,7 +5373,7 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -4665,7 +5384,7 @@
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -4676,7 +5395,7 @@
         <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -4687,7 +5406,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -4698,7 +5417,7 @@
         <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -4709,7 +5428,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -4720,7 +5439,7 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C79">
         <v>11</v>
@@ -4731,7 +5450,7 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -4742,7 +5461,7 @@
         <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -4753,7 +5472,7 @@
         <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C82">
         <v>11</v>
@@ -4764,7 +5483,7 @@
         <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -4775,7 +5494,7 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -4786,7 +5505,7 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C85">
         <v>11</v>
@@ -4797,7 +5516,7 @@
         <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -4808,7 +5527,7 @@
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -4819,7 +5538,7 @@
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -4830,7 +5549,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -4841,7 +5560,7 @@
         <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -4852,7 +5571,7 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -4863,7 +5582,7 @@
         <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -4874,7 +5593,7 @@
         <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -4885,7 +5604,7 @@
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -4896,7 +5615,7 @@
         <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -4907,7 +5626,7 @@
         <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C96">
         <v>14</v>
@@ -4918,7 +5637,7 @@
         <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -4929,7 +5648,7 @@
         <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C98">
         <v>14</v>
@@ -4940,7 +5659,7 @@
         <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C99">
         <v>14</v>
@@ -4951,7 +5670,7 @@
         <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C100">
         <v>14</v>
@@ -4962,7 +5681,7 @@
         <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C101">
         <v>14</v>
@@ -4973,7 +5692,7 @@
         <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -4984,7 +5703,7 @@
         <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C103">
         <v>14</v>
@@ -4995,7 +5714,7 @@
         <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C104">
         <v>14</v>
@@ -5006,7 +5725,7 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C105">
         <v>14</v>
@@ -5017,7 +5736,7 @@
         <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -5028,7 +5747,7 @@
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -5039,7 +5758,7 @@
         <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -5050,7 +5769,7 @@
         <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -5061,7 +5780,7 @@
         <v>159</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -5072,7 +5791,7 @@
         <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C111">
         <v>15</v>
@@ -5083,7 +5802,7 @@
         <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -5094,7 +5813,7 @@
         <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C113">
         <v>15</v>
@@ -5105,7 +5824,7 @@
         <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -5116,7 +5835,7 @@
         <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -5127,7 +5846,7 @@
         <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C116">
         <v>17</v>
@@ -5138,7 +5857,7 @@
         <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C117">
         <v>17</v>
@@ -5149,7 +5868,7 @@
         <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C118">
         <v>17</v>
@@ -5160,7 +5879,7 @@
         <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -5171,7 +5890,7 @@
         <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C120">
         <v>17</v>
@@ -5182,7 +5901,7 @@
         <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C121">
         <v>17</v>
@@ -5193,7 +5912,7 @@
         <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C122">
         <v>17</v>
@@ -5204,7 +5923,7 @@
         <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -5215,7 +5934,7 @@
         <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C124">
         <v>17</v>
@@ -5226,7 +5945,7 @@
         <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C125">
         <v>17</v>
@@ -5237,7 +5956,7 @@
         <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C126">
         <v>19</v>
@@ -5248,7 +5967,7 @@
         <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C127">
         <v>19</v>
@@ -5259,7 +5978,7 @@
         <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C128">
         <v>19</v>
@@ -5270,7 +5989,7 @@
         <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C129">
         <v>19</v>
@@ -5281,7 +6000,7 @@
         <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C130">
         <v>19</v>
@@ -5292,7 +6011,7 @@
         <v>193</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C131">
         <v>19</v>
@@ -5303,7 +6022,7 @@
         <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C132">
         <v>19</v>
@@ -5314,7 +6033,7 @@
         <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C133">
         <v>19</v>
@@ -5325,7 +6044,7 @@
         <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C134">
         <v>19</v>
@@ -5336,7 +6055,7 @@
         <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C135">
         <v>20</v>
@@ -5347,7 +6066,7 @@
         <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C136">
         <v>20</v>
@@ -5358,7 +6077,7 @@
         <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C137">
         <v>20</v>
@@ -5369,7 +6088,7 @@
         <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C138">
         <v>20</v>
@@ -5380,7 +6099,7 @@
         <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C139">
         <v>20</v>
@@ -5391,7 +6110,7 @@
         <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C140">
         <v>20</v>
@@ -5402,7 +6121,7 @@
         <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C141">
         <v>20</v>
@@ -5413,7 +6132,7 @@
         <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C142">
         <v>20</v>
@@ -5424,7 +6143,7 @@
         <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -5435,7 +6154,7 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -5446,7 +6165,7 @@
         <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C145">
         <v>20</v>
@@ -5457,7 +6176,7 @@
         <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C146">
         <v>22</v>
@@ -5468,7 +6187,7 @@
         <v>217</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C147">
         <v>22</v>
@@ -5479,7 +6198,7 @@
         <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C148">
         <v>22</v>
@@ -5490,7 +6209,7 @@
         <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C149">
         <v>22</v>
@@ -5501,7 +6220,7 @@
         <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C150">
         <v>22</v>
@@ -5512,7 +6231,7 @@
         <v>221</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C151">
         <v>22</v>
@@ -5523,7 +6242,7 @@
         <v>222</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C152">
         <v>22</v>
@@ -5534,7 +6253,7 @@
         <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C153">
         <v>22</v>
@@ -5545,7 +6264,7 @@
         <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C154">
         <v>22</v>
@@ -5556,7 +6275,7 @@
         <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C155">
         <v>22</v>
@@ -5567,7 +6286,7 @@
         <v>230</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C156">
         <v>22</v>
@@ -5578,7 +6297,7 @@
         <v>231</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C157">
         <v>22</v>
@@ -5589,7 +6308,7 @@
         <v>232</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C158">
         <v>22</v>
@@ -5600,7 +6319,7 @@
         <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C159">
         <v>24</v>
@@ -5611,7 +6330,7 @@
         <v>234</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C160">
         <v>24</v>
@@ -5622,7 +6341,7 @@
         <v>235</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C161">
         <v>24</v>
@@ -5633,7 +6352,7 @@
         <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C162">
         <v>24</v>
@@ -5644,7 +6363,7 @@
         <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C163">
         <v>24</v>
@@ -5655,7 +6374,7 @@
         <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C164">
         <v>24</v>
@@ -5666,7 +6385,7 @@
         <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C165">
         <v>24</v>
@@ -5677,7 +6396,7 @@
         <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C166">
         <v>24</v>
@@ -5688,7 +6407,7 @@
         <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C167">
         <v>24</v>
@@ -5699,7 +6418,7 @@
         <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C168">
         <v>24</v>
@@ -5710,7 +6429,7 @@
         <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C169">
         <v>25</v>
@@ -5721,7 +6440,7 @@
         <v>247</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C170">
         <v>25</v>
@@ -5732,7 +6451,7 @@
         <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C171">
         <v>25</v>
@@ -5743,7 +6462,7 @@
         <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C172">
         <v>25</v>
@@ -5754,7 +6473,7 @@
         <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C173">
         <v>25</v>
@@ -5765,7 +6484,7 @@
         <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C174">
         <v>25</v>
@@ -5776,7 +6495,7 @@
         <v>252</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C175">
         <v>25</v>
@@ -5787,7 +6506,7 @@
         <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C176">
         <v>25</v>
@@ -5798,7 +6517,7 @@
         <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C177">
         <v>25</v>
@@ -5809,7 +6528,7 @@
         <v>258</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C178">
         <v>25</v>
@@ -5820,7 +6539,7 @@
         <v>259</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C179">
         <v>25</v>
@@ -5863,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5874,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5885,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5896,7 +6615,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5907,7 +6626,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5918,7 +6637,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5929,7 +6648,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5940,7 +6659,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5951,7 +6670,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5962,7 +6681,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5973,7 +6692,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5984,7 +6703,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5995,7 +6714,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6006,7 +6725,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6017,7 +6736,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6028,7 +6747,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -6039,7 +6758,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6050,7 +6769,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -6061,7 +6780,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -6072,7 +6791,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -6083,7 +6802,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6094,7 +6813,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -6105,7 +6824,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6116,7 +6835,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -6127,7 +6846,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6138,7 +6857,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -6149,7 +6868,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -6160,7 +6879,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -6171,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6182,7 +6901,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -6193,7 +6912,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -6204,7 +6923,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -6215,7 +6934,7 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -6226,7 +6945,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -6237,7 +6956,7 @@
         <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -6248,7 +6967,7 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -6259,7 +6978,7 @@
         <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -6270,7 +6989,7 @@
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -6281,7 +7000,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6292,7 +7011,7 @@
         <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -6303,7 +7022,7 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -6314,7 +7033,7 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -6325,7 +7044,7 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -6336,7 +7055,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -6347,7 +7066,7 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -6358,7 +7077,7 @@
         <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -6369,7 +7088,7 @@
         <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -6380,7 +7099,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -6391,7 +7110,7 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6402,7 +7121,7 @@
         <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6413,7 +7132,7 @@
         <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6424,7 +7143,7 @@
         <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6435,7 +7154,7 @@
         <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6446,7 +7165,7 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6457,7 +7176,7 @@
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6468,7 +7187,7 @@
         <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6479,7 +7198,7 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6490,7 +7209,7 @@
         <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6501,7 +7220,7 @@
         <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6512,7 +7231,7 @@
         <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -6523,7 +7242,7 @@
         <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -6534,7 +7253,7 @@
         <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6545,7 +7264,7 @@
         <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -6556,7 +7275,7 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -6567,7 +7286,7 @@
         <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -6578,7 +7297,7 @@
         <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -6589,7 +7308,7 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -6600,7 +7319,7 @@
         <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -6611,7 +7330,7 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -6622,7 +7341,7 @@
         <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -6633,7 +7352,7 @@
         <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -6644,7 +7363,7 @@
         <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -6655,7 +7374,7 @@
         <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -6666,7 +7385,7 @@
         <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -6677,7 +7396,7 @@
         <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -6688,7 +7407,7 @@
         <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -6699,7 +7418,7 @@
         <v>220</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -6710,7 +7429,7 @@
         <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -6721,7 +7440,7 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -6732,7 +7451,7 @@
         <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -6743,7 +7462,7 @@
         <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -6754,7 +7473,7 @@
         <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -6765,7 +7484,7 @@
         <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -6776,7 +7495,7 @@
         <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -6787,7 +7506,7 @@
         <v>244</v>
       </c>
       <c r="B86" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -6798,7 +7517,7 @@
         <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -6809,7 +7528,7 @@
         <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -6820,7 +7539,7 @@
         <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -6831,7 +7550,7 @@
         <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C90">
         <v>7</v>
@@ -6842,7 +7561,7 @@
         <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -6853,7 +7572,7 @@
         <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -6864,7 +7583,7 @@
         <v>271</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -6875,7 +7594,7 @@
         <v>274</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -6886,7 +7605,7 @@
         <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -6897,7 +7616,7 @@
         <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -6908,7 +7627,7 @@
         <v>283</v>
       </c>
       <c r="B97" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -6919,7 +7638,7 @@
         <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -6930,7 +7649,7 @@
         <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -6941,7 +7660,7 @@
         <v>292</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C100">
         <v>7</v>
@@ -6952,7 +7671,7 @@
         <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -6963,7 +7682,7 @@
         <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -6974,7 +7693,7 @@
         <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -6985,7 +7704,7 @@
         <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -6996,7 +7715,7 @@
         <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -7007,7 +7726,7 @@
         <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -7018,7 +7737,7 @@
         <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -7029,7 +7748,7 @@
         <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -7040,7 +7759,7 @@
         <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -7051,7 +7770,7 @@
         <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -7062,7 +7781,7 @@
         <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -7073,7 +7792,7 @@
         <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -7084,7 +7803,7 @@
         <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -7095,7 +7814,7 @@
         <v>334</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -7106,7 +7825,7 @@
         <v>337</v>
       </c>
       <c r="B115" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -7117,7 +7836,7 @@
         <v>340</v>
       </c>
       <c r="B116" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -7128,7 +7847,7 @@
         <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -7139,7 +7858,7 @@
         <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -7150,7 +7869,7 @@
         <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -7161,7 +7880,7 @@
         <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -7172,7 +7891,7 @@
         <v>355</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -7183,7 +7902,7 @@
         <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C122">
         <v>9</v>
@@ -7194,7 +7913,7 @@
         <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -7205,7 +7924,7 @@
         <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -7216,7 +7935,7 @@
         <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -7227,7 +7946,7 @@
         <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -7238,7 +7957,7 @@
         <v>373</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C127">
         <v>9</v>
@@ -7249,7 +7968,7 @@
         <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -7260,7 +7979,7 @@
         <v>379</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C129">
         <v>16</v>
@@ -7271,7 +7990,7 @@
         <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C130">
         <v>16</v>
@@ -7282,7 +8001,7 @@
         <v>385</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C131">
         <v>16</v>
@@ -7293,7 +8012,7 @@
         <v>388</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C132">
         <v>16</v>
@@ -7304,7 +8023,7 @@
         <v>391</v>
       </c>
       <c r="B133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C133">
         <v>16</v>
@@ -7315,7 +8034,7 @@
         <v>394</v>
       </c>
       <c r="B134" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C134">
         <v>16</v>
@@ -7326,7 +8045,7 @@
         <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C135">
         <v>16</v>
@@ -7337,7 +8056,7 @@
         <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C136">
         <v>16</v>
@@ -7348,7 +8067,7 @@
         <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C137">
         <v>16</v>
@@ -7359,7 +8078,7 @@
         <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C138">
         <v>16</v>
@@ -7370,7 +8089,7 @@
         <v>409</v>
       </c>
       <c r="B139" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C139">
         <v>16</v>
@@ -7381,7 +8100,7 @@
         <v>412</v>
       </c>
       <c r="B140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C140">
         <v>16</v>
@@ -7392,7 +8111,7 @@
         <v>415</v>
       </c>
       <c r="B141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C141">
         <v>16</v>
@@ -7403,7 +8122,7 @@
         <v>418</v>
       </c>
       <c r="B142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C142">
         <v>16</v>
@@ -7414,7 +8133,7 @@
         <v>421</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C143">
         <v>16</v>
@@ -7425,7 +8144,7 @@
         <v>424</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C144">
         <v>16</v>
@@ -7436,7 +8155,7 @@
         <v>427</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C145">
         <v>16</v>
@@ -7447,7 +8166,7 @@
         <v>430</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C146">
         <v>16</v>
@@ -7458,7 +8177,7 @@
         <v>433</v>
       </c>
       <c r="B147" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -7469,7 +8188,7 @@
         <v>436</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -7480,7 +8199,7 @@
         <v>439</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C149">
         <v>16</v>
@@ -7491,7 +8210,7 @@
         <v>442</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -7502,7 +8221,7 @@
         <v>445</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C151">
         <v>16</v>
@@ -7513,7 +8232,7 @@
         <v>448</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C152">
         <v>16</v>
@@ -7524,7 +8243,7 @@
         <v>451</v>
       </c>
       <c r="B153" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C153">
         <v>16</v>
@@ -7535,7 +8254,7 @@
         <v>454</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -7546,7 +8265,7 @@
         <v>457</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C155">
         <v>17</v>
@@ -7557,7 +8276,7 @@
         <v>460</v>
       </c>
       <c r="B156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C156">
         <v>17</v>
@@ -7568,7 +8287,7 @@
         <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C157">
         <v>17</v>
@@ -7579,7 +8298,7 @@
         <v>466</v>
       </c>
       <c r="B158" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C158">
         <v>17</v>
@@ -7590,7 +8309,7 @@
         <v>469</v>
       </c>
       <c r="B159" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C159">
         <v>17</v>
@@ -7601,7 +8320,7 @@
         <v>472</v>
       </c>
       <c r="B160" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C160">
         <v>17</v>
@@ -7612,7 +8331,7 @@
         <v>475</v>
       </c>
       <c r="B161" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C161">
         <v>17</v>
@@ -7623,7 +8342,7 @@
         <v>478</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C162">
         <v>17</v>
@@ -7634,7 +8353,7 @@
         <v>481</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C163">
         <v>17</v>
@@ -7645,7 +8364,7 @@
         <v>484</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C164">
         <v>17</v>
@@ -7656,7 +8375,7 @@
         <v>487</v>
       </c>
       <c r="B165" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C165">
         <v>17</v>
@@ -7667,7 +8386,7 @@
         <v>490</v>
       </c>
       <c r="B166" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C166">
         <v>17</v>
@@ -7678,7 +8397,7 @@
         <v>493</v>
       </c>
       <c r="B167" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C167">
         <v>17</v>
@@ -7689,7 +8408,7 @@
         <v>496</v>
       </c>
       <c r="B168" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C168">
         <v>17</v>
@@ -7700,7 +8419,7 @@
         <v>499</v>
       </c>
       <c r="B169" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C169">
         <v>17</v>
@@ -7711,7 +8430,7 @@
         <v>502</v>
       </c>
       <c r="B170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C170">
         <v>17</v>
@@ -7722,7 +8441,7 @@
         <v>505</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C171">
         <v>17</v>
@@ -7733,7 +8452,7 @@
         <v>508</v>
       </c>
       <c r="B172" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C172">
         <v>17</v>
@@ -7744,7 +8463,7 @@
         <v>511</v>
       </c>
       <c r="B173" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C173">
         <v>17</v>
@@ -7755,7 +8474,7 @@
         <v>514</v>
       </c>
       <c r="B174" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C174">
         <v>17</v>
@@ -7766,7 +8485,7 @@
         <v>517</v>
       </c>
       <c r="B175" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C175">
         <v>17</v>
@@ -7777,7 +8496,7 @@
         <v>520</v>
       </c>
       <c r="B176" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C176">
         <v>17</v>
@@ -7788,7 +8507,7 @@
         <v>523</v>
       </c>
       <c r="B177" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C177">
         <v>17</v>
@@ -7799,7 +8518,7 @@
         <v>526</v>
       </c>
       <c r="B178" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C178">
         <v>18</v>
@@ -7810,7 +8529,7 @@
         <v>529</v>
       </c>
       <c r="B179" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C179">
         <v>18</v>
@@ -7821,7 +8540,7 @@
         <v>532</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C180">
         <v>18</v>
@@ -7832,7 +8551,7 @@
         <v>535</v>
       </c>
       <c r="B181" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C181">
         <v>18</v>
@@ -7843,7 +8562,7 @@
         <v>538</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C182">
         <v>18</v>
@@ -7854,7 +8573,7 @@
         <v>541</v>
       </c>
       <c r="B183" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C183">
         <v>18</v>
@@ -7865,7 +8584,7 @@
         <v>544</v>
       </c>
       <c r="B184" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C184">
         <v>18</v>
@@ -7876,7 +8595,7 @@
         <v>547</v>
       </c>
       <c r="B185" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C185">
         <v>18</v>
@@ -7887,7 +8606,7 @@
         <v>550</v>
       </c>
       <c r="B186" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C186">
         <v>18</v>
@@ -7898,7 +8617,7 @@
         <v>553</v>
       </c>
       <c r="B187" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C187">
         <v>18</v>
@@ -7909,7 +8628,7 @@
         <v>556</v>
       </c>
       <c r="B188" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C188">
         <v>18</v>
@@ -7920,7 +8639,7 @@
         <v>559</v>
       </c>
       <c r="B189" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C189">
         <v>18</v>
@@ -7931,7 +8650,7 @@
         <v>562</v>
       </c>
       <c r="B190" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C190">
         <v>18</v>
@@ -7942,7 +8661,7 @@
         <v>565</v>
       </c>
       <c r="B191" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C191">
         <v>18</v>
@@ -7953,7 +8672,7 @@
         <v>568</v>
       </c>
       <c r="B192" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C192">
         <v>18</v>
@@ -7964,7 +8683,7 @@
         <v>571</v>
       </c>
       <c r="B193" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C193">
         <v>18</v>
@@ -7975,7 +8694,7 @@
         <v>574</v>
       </c>
       <c r="B194" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C194">
         <v>18</v>
@@ -7986,7 +8705,7 @@
         <v>577</v>
       </c>
       <c r="B195" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C195">
         <v>18</v>
@@ -7997,7 +8716,7 @@
         <v>580</v>
       </c>
       <c r="B196" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C196">
         <v>18</v>
@@ -8008,7 +8727,7 @@
         <v>583</v>
       </c>
       <c r="B197" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C197">
         <v>18</v>
@@ -8019,7 +8738,7 @@
         <v>586</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C198">
         <v>18</v>
@@ -8030,7 +8749,7 @@
         <v>589</v>
       </c>
       <c r="B199" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C199">
         <v>18</v>
@@ -8041,7 +8760,7 @@
         <v>592</v>
       </c>
       <c r="B200" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C200">
         <v>19</v>
@@ -8052,7 +8771,7 @@
         <v>622</v>
       </c>
       <c r="B201" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C201">
         <v>19</v>
@@ -8063,7 +8782,7 @@
         <v>623</v>
       </c>
       <c r="B202" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C202">
         <v>19</v>
@@ -8074,7 +8793,7 @@
         <v>625</v>
       </c>
       <c r="B203" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C203">
         <v>19</v>
@@ -8085,7 +8804,7 @@
         <v>626</v>
       </c>
       <c r="B204" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C204">
         <v>19</v>
@@ -8096,7 +8815,7 @@
         <v>628</v>
       </c>
       <c r="B205" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C205">
         <v>19</v>
@@ -8107,7 +8826,7 @@
         <v>631</v>
       </c>
       <c r="B206" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C206">
         <v>19</v>
@@ -8118,7 +8837,7 @@
         <v>632</v>
       </c>
       <c r="B207" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C207">
         <v>19</v>
@@ -8129,7 +8848,7 @@
         <v>634</v>
       </c>
       <c r="B208" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C208">
         <v>19</v>
@@ -8140,7 +8859,7 @@
         <v>637</v>
       </c>
       <c r="B209" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C209">
         <v>19</v>
@@ -8151,7 +8870,7 @@
         <v>640</v>
       </c>
       <c r="B210" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C210">
         <v>20</v>
@@ -8162,7 +8881,7 @@
         <v>643</v>
       </c>
       <c r="B211" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C211">
         <v>20</v>
@@ -8173,7 +8892,7 @@
         <v>646</v>
       </c>
       <c r="B212" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C212">
         <v>20</v>
@@ -8184,7 +8903,7 @@
         <v>649</v>
       </c>
       <c r="B213" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C213">
         <v>20</v>
@@ -8195,7 +8914,7 @@
         <v>652</v>
       </c>
       <c r="B214" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C214">
         <v>20</v>
@@ -8206,7 +8925,7 @@
         <v>655</v>
       </c>
       <c r="B215" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C215">
         <v>20</v>
@@ -8217,7 +8936,7 @@
         <v>658</v>
       </c>
       <c r="B216" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C216">
         <v>20</v>
@@ -8228,7 +8947,7 @@
         <v>661</v>
       </c>
       <c r="B217" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C217">
         <v>20</v>
@@ -8239,7 +8958,7 @@
         <v>664</v>
       </c>
       <c r="B218" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C218">
         <v>20</v>
@@ -8250,7 +8969,7 @@
         <v>667</v>
       </c>
       <c r="B219" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C219">
         <v>20</v>
@@ -8261,7 +8980,7 @@
         <v>670</v>
       </c>
       <c r="B220" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C220">
         <v>20</v>
@@ -8272,7 +8991,7 @@
         <v>673</v>
       </c>
       <c r="B221" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C221">
         <v>20</v>
@@ -8283,7 +9002,7 @@
         <v>676</v>
       </c>
       <c r="B222" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C222">
         <v>20</v>
@@ -8294,7 +9013,7 @@
         <v>679</v>
       </c>
       <c r="B223" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C223">
         <v>20</v>
@@ -8305,7 +9024,7 @@
         <v>682</v>
       </c>
       <c r="B224" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C224">
         <v>20</v>
@@ -8316,7 +9035,7 @@
         <v>685</v>
       </c>
       <c r="B225" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C225">
         <v>20</v>
@@ -8327,7 +9046,7 @@
         <v>595</v>
       </c>
       <c r="B226" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C226">
         <v>21</v>
@@ -8338,7 +9057,7 @@
         <v>598</v>
       </c>
       <c r="B227" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C227">
         <v>21</v>
@@ -8349,7 +9068,7 @@
         <v>601</v>
       </c>
       <c r="B228" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C228">
         <v>21</v>
@@ -8360,7 +9079,7 @@
         <v>602</v>
       </c>
       <c r="B229" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C229">
         <v>21</v>
@@ -8371,7 +9090,7 @@
         <v>604</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C230">
         <v>21</v>
@@ -8382,7 +9101,7 @@
         <v>607</v>
       </c>
       <c r="B231" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C231">
         <v>21</v>
@@ -8393,7 +9112,7 @@
         <v>610</v>
       </c>
       <c r="B232" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C232">
         <v>21</v>
@@ -8404,7 +9123,7 @@
         <v>611</v>
       </c>
       <c r="B233" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C233">
         <v>21</v>
@@ -8415,7 +9134,7 @@
         <v>613</v>
       </c>
       <c r="B234" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C234">
         <v>21</v>
@@ -8426,7 +9145,7 @@
         <v>616</v>
       </c>
       <c r="B235" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C235">
         <v>21</v>
@@ -8437,7 +9156,7 @@
         <v>617</v>
       </c>
       <c r="B236" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C236">
         <v>21</v>
@@ -8448,7 +9167,7 @@
         <v>619</v>
       </c>
       <c r="B237" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C237">
         <v>21</v>
@@ -8459,7 +9178,7 @@
         <v>620</v>
       </c>
       <c r="B238" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C238">
         <v>21</v>
@@ -8472,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4CC593-306E-49D5-BBC9-8CC927B2EF5E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8503,15 +9222,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -8551,7 +9262,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8559,7 +9270,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8572,7 +9283,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8595,34 +9306,34 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8630,22 +9341,22 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
+        <v>673</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -8662,25 +9373,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -8716,35 +9427,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
